--- a/Automation/TestData/Tumi.xlsx
+++ b/Automation/TestData/Tumi.xlsx
@@ -33,7 +33,7 @@
     <t>Employee.tumi@gmail.com</t>
   </si>
   <si>
-    <t>Tumi_886</t>
+    <t>Tumi_8864</t>
   </si>
 </sst>
 </file>
